--- a/code/processing/data_to_grid.xlsx
+++ b/code/processing/data_to_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>The format for the catalogue sheet must mirror this example exactly.</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>LCD2011_CAN_bal</t>
+  </si>
+  <si>
+    <t>bal_boundary</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>city boundary</t>
+  </si>
+  <si>
+    <t>.shp</t>
+  </si>
+  <si>
+    <t>areaLevel</t>
   </si>
 </sst>
 </file>
@@ -124,7 +139,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -207,7 +222,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -571,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -611,25 +626,25 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -637,16 +652,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -660,16 +675,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -678,21 +693,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -701,21 +716,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
@@ -729,21 +744,44 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
